--- a/WorkingStatus.xlsx
+++ b/WorkingStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\source\aliceconv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CEECE4E-C74B-4149-A5B1-6E6D5A25084A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C35092-DA4B-4121-8AF1-37B636DFF75F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="2295" windowWidth="27315" windowHeight="15105" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="86">
   <si>
     <t>リトルプリンセス</t>
   </si>
@@ -355,6 +355,10 @@
   <si>
     <t>FM TOWNS
 UserClub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇 (First lot needed)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -727,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1476BDDC-5CB6-4D7B-9A86-4CEE1B77D7D6}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1051,7 +1055,7 @@
         <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">

--- a/WorkingStatus.xlsx
+++ b/WorkingStatus.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\source\aliceconv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C35092-DA4B-4121-8AF1-37B636DFF75F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB85BF9C-F03D-47AC-AAD3-42E5F57C6D3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="2295" windowWidth="27315" windowHeight="15105" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="1905" windowWidth="27315" windowHeight="15075" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CG" sheetId="1" r:id="rId1"/>
+    <sheet name="Sound" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="96">
   <si>
     <t>リトルプリンセス</t>
   </si>
@@ -361,12 +362,52 @@
     <t>〇 (First lot needed)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇 (MAKO2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No Sound</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD-DA (98, TOWNS &amp; Win3.1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(98, TOWNS &amp; Win3.1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(98 256c/Win3.1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Win3.1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(98 &amp; TOWNS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(98, TOWNS &amp; Win3.1/Win3.1 &amp; Win95)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,13 +423,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -405,15 +460,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1476BDDC-5CB6-4D7B-9A86-4CEE1B77D7D6}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -796,6 +854,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -814,19 +875,19 @@
       <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -876,10 +937,10 @@
       <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" t="s">
         <v>56</v>
       </c>
@@ -897,10 +958,10 @@
       <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" t="s">
         <v>56</v>
       </c>
@@ -932,10 +993,10 @@
       <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" t="s">
         <v>58</v>
       </c>
@@ -953,10 +1014,10 @@
       <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" t="s">
         <v>59</v>
       </c>
@@ -974,10 +1035,10 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" t="s">
         <v>56</v>
       </c>
@@ -989,10 +1050,10 @@
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" t="s">
         <v>56</v>
       </c>
@@ -1004,7 +1065,7 @@
       <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D19" t="s">
@@ -1027,7 +1088,7 @@
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="2"/>
       <c r="E20" t="s">
         <v>56</v>
       </c>
@@ -1228,7 +1289,7 @@
       <c r="E33" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1242,7 +1303,7 @@
       <c r="E34" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
@@ -1533,4 +1594,611 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8125B7-A0B0-4490-A0D0-BEF54767802B}">
+  <dimension ref="A1:L57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="48.875" customWidth="1"/>
+    <col min="2" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="H56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+      <c r="K57" t="s">
+        <v>89</v>
+      </c>
+      <c r="L57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>